--- a/Costs.xlsx
+++ b/Costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c30954c4ac476875/GitHubRepositories/BeaconBox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{D335C20C-D54D-4473-A7D0-D0163633320A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6651B67F-15F9-47F3-9997-0CAC6331E644}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{D335C20C-D54D-4473-A7D0-D0163633320A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{159C1EBF-3915-4F5C-A27A-418506682DC8}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="1080" windowWidth="21600" windowHeight="13905" xr2:uid="{B4F2B3C5-EB4E-4DFF-94DF-3361CF6537A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4F2B3C5-EB4E-4DFF-94DF-3361CF6537A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>What</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>PCBs</t>
+  </si>
+  <si>
+    <t>Wickes - Wood</t>
+  </si>
+  <si>
+    <t>21-Nov-202</t>
+  </si>
+  <si>
+    <t>Paid to Chase from Amateur Radio Fund</t>
   </si>
 </sst>
 </file>
@@ -129,6 +138,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,19 +461,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540CA353-7309-49F3-BDAB-25363B9B572E}">
-  <dimension ref="B2:D15"/>
+  <dimension ref="B2:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -471,123 +485,143 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
+        <v>45615</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>45608</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>20.25</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>45600</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <v>3.07</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>45598</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>3.85</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>45593</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>8.7899999999999991</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>45593</v>
       </c>
       <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8.7899999999999991</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>45593</v>
+      </c>
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
         <v>45588</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>5.59</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
         <v>45583</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>3.24</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
         <v>45561</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <v>2.79</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
         <v>45560</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <v>3.24</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
         <v>45551</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
         <v>5.58</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="2">
-        <f>SUM(D4:D13)</f>
-        <v>58.000000000000007</v>
+      <c r="D16" s="2">
+        <f>SUM(D4:D14)</f>
+        <v>71.599999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/Costs.xlsx
+++ b/Costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c30954c4ac476875/GitHubRepositories/BeaconBox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{D335C20C-D54D-4473-A7D0-D0163633320A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{159C1EBF-3915-4F5C-A27A-418506682DC8}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{D335C20C-D54D-4473-A7D0-D0163633320A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{024CB892-8A83-4E4F-8984-B2476F8EA051}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4F2B3C5-EB4E-4DFF-94DF-3361CF6537A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>What</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Paid to Chase from Amateur Radio Fund</t>
+  </si>
+  <si>
+    <t>BitsBox - Bits</t>
   </si>
 </sst>
 </file>
@@ -461,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540CA353-7309-49F3-BDAB-25363B9B572E}">
-  <dimension ref="B2:L16"/>
+  <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,115 +490,115 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <v>45615</v>
+        <v>45620</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
-        <v>13.6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="2">
-        <v>70</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>45608</v>
+        <v>45620</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>20.25</v>
+        <v>8.7899999999999991</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>45600</v>
+        <v>45615</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>3.07</v>
+        <v>13.6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>45598</v>
+        <v>45608</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2">
-        <v>3.85</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
-        <v>45593</v>
+        <v>45600</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2">
-        <v>8.7899999999999991</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>45593</v>
+        <v>45598</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2">
-        <v>1.6</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
-        <v>45588</v>
+        <v>45593</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2">
-        <v>5.59</v>
+        <v>8.7899999999999991</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <v>45583</v>
+        <v>45593</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2">
-        <v>3.24</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>45561</v>
+        <v>45588</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2">
-        <v>2.79</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <v>45560</v>
+        <v>45583</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -606,22 +609,44 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <v>45551</v>
+        <v>45561</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="2">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>45560</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>45551</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2">
         <v>5.58</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2">
-        <f>SUM(D4:D14)</f>
-        <v>71.599999999999994</v>
+      <c r="D18" s="2">
+        <f>SUM(D4:D16)</f>
+        <v>93.71</v>
       </c>
     </row>
   </sheetData>
